--- a/stock_historical_data/60m/WAAREE.BO.xlsx
+++ b/stock_historical_data/60m/WAAREE.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P118"/>
+  <dimension ref="A1:Q127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +573,9 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -668,6 +679,9 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -718,6 +732,9 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -768,6 +785,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -818,6 +838,9 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -868,6 +891,9 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -918,6 +944,9 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -968,6 +997,9 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1018,6 +1050,9 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1068,6 +1103,9 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1118,6 +1156,9 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1168,6 +1209,9 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1218,6 +1262,9 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1268,6 +1315,9 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1318,6 +1368,9 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1368,6 +1421,9 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1418,6 +1474,9 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1468,6 +1527,9 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1518,6 +1580,9 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1568,6 +1633,9 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1618,6 +1686,9 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1668,6 +1739,9 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1718,6 +1792,9 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1768,6 +1845,9 @@
       <c r="P26" t="n">
         <v>0</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1818,6 +1898,9 @@
       <c r="P27" t="n">
         <v>0</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1868,6 +1951,9 @@
       <c r="P28" t="n">
         <v>0</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1918,6 +2004,9 @@
       <c r="P29" t="n">
         <v>0</v>
       </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1968,6 +2057,9 @@
       <c r="P30" t="n">
         <v>0</v>
       </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2018,6 +2110,9 @@
       <c r="P31" t="n">
         <v>0</v>
       </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2068,6 +2163,9 @@
       <c r="P32" t="n">
         <v>0</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2118,6 +2216,9 @@
       <c r="P33" t="n">
         <v>0</v>
       </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2168,6 +2269,9 @@
       <c r="P34" t="n">
         <v>0</v>
       </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2218,6 +2322,9 @@
       <c r="P35" t="n">
         <v>0</v>
       </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2268,6 +2375,9 @@
       <c r="P36" t="n">
         <v>0</v>
       </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2318,6 +2428,9 @@
       <c r="P37" t="n">
         <v>0</v>
       </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2368,6 +2481,9 @@
       <c r="P38" t="n">
         <v>0</v>
       </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2418,6 +2534,9 @@
       <c r="P39" t="n">
         <v>0</v>
       </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2468,6 +2587,9 @@
       <c r="P40" t="n">
         <v>0</v>
       </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2518,6 +2640,9 @@
       <c r="P41" t="n">
         <v>0</v>
       </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2568,6 +2693,9 @@
       <c r="P42" t="n">
         <v>0</v>
       </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2618,6 +2746,9 @@
       <c r="P43" t="n">
         <v>0</v>
       </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2668,6 +2799,9 @@
       <c r="P44" t="n">
         <v>0</v>
       </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2718,6 +2852,9 @@
       <c r="P45" t="n">
         <v>0</v>
       </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2768,6 +2905,9 @@
       <c r="P46" t="n">
         <v>0</v>
       </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2818,6 +2958,9 @@
       <c r="P47" t="n">
         <v>0</v>
       </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2868,6 +3011,9 @@
       <c r="P48" t="n">
         <v>0</v>
       </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2918,6 +3064,9 @@
       <c r="P49" t="n">
         <v>0</v>
       </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2968,6 +3117,9 @@
       <c r="P50" t="n">
         <v>0</v>
       </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3018,6 +3170,9 @@
       <c r="P51" t="n">
         <v>0</v>
       </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3068,6 +3223,9 @@
       <c r="P52" t="n">
         <v>0</v>
       </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3118,6 +3276,9 @@
       <c r="P53" t="n">
         <v>0</v>
       </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3168,6 +3329,9 @@
       <c r="P54" t="n">
         <v>0</v>
       </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3218,6 +3382,9 @@
       <c r="P55" t="n">
         <v>0</v>
       </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3268,6 +3435,9 @@
       <c r="P56" t="n">
         <v>0</v>
       </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3318,6 +3488,9 @@
       <c r="P57" t="n">
         <v>0</v>
       </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3368,6 +3541,9 @@
       <c r="P58" t="n">
         <v>0</v>
       </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3418,6 +3594,9 @@
       <c r="P59" t="n">
         <v>0</v>
       </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3468,6 +3647,9 @@
       <c r="P60" t="n">
         <v>0</v>
       </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3518,6 +3700,9 @@
       <c r="P61" t="n">
         <v>0</v>
       </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3568,6 +3753,9 @@
       <c r="P62" t="n">
         <v>0</v>
       </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3618,6 +3806,9 @@
       <c r="P63" t="n">
         <v>0</v>
       </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3668,6 +3859,9 @@
       <c r="P64" t="n">
         <v>0</v>
       </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3718,6 +3912,9 @@
       <c r="P65" t="n">
         <v>0</v>
       </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3768,6 +3965,9 @@
       <c r="P66" t="n">
         <v>0</v>
       </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3818,6 +4018,9 @@
       <c r="P67" t="n">
         <v>0</v>
       </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3868,6 +4071,9 @@
       <c r="P68" t="n">
         <v>0</v>
       </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3918,6 +4124,9 @@
       <c r="P69" t="n">
         <v>0</v>
       </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3968,6 +4177,9 @@
       <c r="P70" t="n">
         <v>0</v>
       </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4018,6 +4230,9 @@
       <c r="P71" t="n">
         <v>0</v>
       </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4068,6 +4283,9 @@
       <c r="P72" t="n">
         <v>0</v>
       </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4118,6 +4336,9 @@
       <c r="P73" t="n">
         <v>0</v>
       </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4168,6 +4389,9 @@
       <c r="P74" t="n">
         <v>0</v>
       </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4218,6 +4442,9 @@
       <c r="P75" t="n">
         <v>0</v>
       </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4268,6 +4495,9 @@
       <c r="P76" t="n">
         <v>0</v>
       </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4318,6 +4548,9 @@
       <c r="P77" t="n">
         <v>0</v>
       </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4368,6 +4601,9 @@
       <c r="P78" t="n">
         <v>0</v>
       </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4418,6 +4654,9 @@
       <c r="P79" t="n">
         <v>0</v>
       </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4468,6 +4707,9 @@
       <c r="P80" t="n">
         <v>0</v>
       </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4518,6 +4760,9 @@
       <c r="P81" t="n">
         <v>0</v>
       </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4568,6 +4813,9 @@
       <c r="P82" t="n">
         <v>0</v>
       </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4618,6 +4866,9 @@
       <c r="P83" t="n">
         <v>0</v>
       </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4668,6 +4919,9 @@
       <c r="P84" t="n">
         <v>0</v>
       </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4718,6 +4972,9 @@
       <c r="P85" t="n">
         <v>0</v>
       </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -4768,6 +5025,9 @@
       <c r="P86" t="n">
         <v>0</v>
       </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -4818,6 +5078,9 @@
       <c r="P87" t="n">
         <v>0</v>
       </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -4868,6 +5131,9 @@
       <c r="P88" t="n">
         <v>0</v>
       </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -4918,6 +5184,9 @@
       <c r="P89" t="n">
         <v>1</v>
       </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -4968,6 +5237,9 @@
       <c r="P90" t="n">
         <v>0</v>
       </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5018,6 +5290,9 @@
       <c r="P91" t="n">
         <v>0</v>
       </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5068,6 +5343,9 @@
       <c r="P92" t="n">
         <v>0</v>
       </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5118,6 +5396,9 @@
       <c r="P93" t="n">
         <v>0</v>
       </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5168,6 +5449,9 @@
       <c r="P94" t="n">
         <v>0</v>
       </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5218,6 +5502,9 @@
       <c r="P95" t="n">
         <v>0</v>
       </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5268,6 +5555,9 @@
       <c r="P96" t="n">
         <v>0</v>
       </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5318,6 +5608,9 @@
       <c r="P97" t="n">
         <v>0</v>
       </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5368,6 +5661,9 @@
       <c r="P98" t="n">
         <v>0</v>
       </c>
+      <c r="Q98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5418,6 +5714,9 @@
       <c r="P99" t="n">
         <v>0</v>
       </c>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5468,6 +5767,9 @@
       <c r="P100" t="n">
         <v>0</v>
       </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5518,6 +5820,9 @@
       <c r="P101" t="n">
         <v>0</v>
       </c>
+      <c r="Q101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5568,6 +5873,9 @@
       <c r="P102" t="n">
         <v>0</v>
       </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5618,6 +5926,9 @@
       <c r="P103" t="n">
         <v>0</v>
       </c>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5668,6 +5979,9 @@
       <c r="P104" t="n">
         <v>0</v>
       </c>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -5718,6 +6032,9 @@
       <c r="P105" t="n">
         <v>0</v>
       </c>
+      <c r="Q105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -5768,6 +6085,9 @@
       <c r="P106" t="n">
         <v>0</v>
       </c>
+      <c r="Q106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -5818,6 +6138,9 @@
       <c r="P107" t="n">
         <v>0</v>
       </c>
+      <c r="Q107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -5868,6 +6191,9 @@
       <c r="P108" t="n">
         <v>0</v>
       </c>
+      <c r="Q108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -5918,6 +6244,9 @@
       <c r="P109" t="n">
         <v>0</v>
       </c>
+      <c r="Q109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -5968,6 +6297,9 @@
       <c r="P110" t="n">
         <v>0</v>
       </c>
+      <c r="Q110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -6018,6 +6350,9 @@
       <c r="P111" t="n">
         <v>0</v>
       </c>
+      <c r="Q111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6068,6 +6403,9 @@
       <c r="P112" t="n">
         <v>0</v>
       </c>
+      <c r="Q112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6110,12 +6448,15 @@
         <v>4</v>
       </c>
       <c r="N113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O113" t="n">
         <v>0</v>
       </c>
       <c r="P113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6160,12 +6501,15 @@
         <v>4</v>
       </c>
       <c r="N114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O114" t="n">
         <v>0</v>
       </c>
       <c r="P114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6210,12 +6554,15 @@
         <v>4</v>
       </c>
       <c r="N115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O115" t="n">
         <v>0</v>
       </c>
       <c r="P115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6260,12 +6607,15 @@
         <v>4</v>
       </c>
       <c r="N116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O116" t="n">
         <v>0</v>
       </c>
       <c r="P116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6310,12 +6660,15 @@
         <v>4</v>
       </c>
       <c r="N117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O117" t="n">
         <v>0</v>
       </c>
       <c r="P117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6368,6 +6721,468 @@
       <c r="P118" t="n">
         <v>0</v>
       </c>
+      <c r="Q118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45680.42708333334</v>
+      </c>
+      <c r="B119" t="n">
+        <v>456.2999877929688</v>
+      </c>
+      <c r="C119" t="n">
+        <v>456.2999877929688</v>
+      </c>
+      <c r="D119" t="n">
+        <v>456.2999877929688</v>
+      </c>
+      <c r="E119" t="n">
+        <v>456.2999877929688</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>23</v>
+      </c>
+      <c r="J119" t="n">
+        <v>10</v>
+      </c>
+      <c r="K119" t="n">
+        <v>15</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>4</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" t="n">
+        <v>0</v>
+      </c>
+      <c r="P119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45680.46875</v>
+      </c>
+      <c r="B120" t="n">
+        <v>456.2999877929688</v>
+      </c>
+      <c r="C120" t="n">
+        <v>456.2999877929688</v>
+      </c>
+      <c r="D120" t="n">
+        <v>456.2999877929688</v>
+      </c>
+      <c r="E120" t="n">
+        <v>456.2999877929688</v>
+      </c>
+      <c r="F120" t="n">
+        <v>5425</v>
+      </c>
+      <c r="G120" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>23</v>
+      </c>
+      <c r="J120" t="n">
+        <v>11</v>
+      </c>
+      <c r="K120" t="n">
+        <v>15</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>4</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" t="n">
+        <v>0</v>
+      </c>
+      <c r="P120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>45680.51041666666</v>
+      </c>
+      <c r="B121" t="n">
+        <v>456.2999877929688</v>
+      </c>
+      <c r="C121" t="n">
+        <v>456.2999877929688</v>
+      </c>
+      <c r="D121" t="n">
+        <v>456.2999877929688</v>
+      </c>
+      <c r="E121" t="n">
+        <v>456.2999877929688</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1575</v>
+      </c>
+      <c r="G121" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>23</v>
+      </c>
+      <c r="J121" t="n">
+        <v>12</v>
+      </c>
+      <c r="K121" t="n">
+        <v>15</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>4</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" t="n">
+        <v>0</v>
+      </c>
+      <c r="P121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>45680.55208333334</v>
+      </c>
+      <c r="B122" t="n">
+        <v>456.2999877929688</v>
+      </c>
+      <c r="C122" t="n">
+        <v>456.2999877929688</v>
+      </c>
+      <c r="D122" t="n">
+        <v>456.2999877929688</v>
+      </c>
+      <c r="E122" t="n">
+        <v>456.2999877929688</v>
+      </c>
+      <c r="F122" t="n">
+        <v>875</v>
+      </c>
+      <c r="G122" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>23</v>
+      </c>
+      <c r="J122" t="n">
+        <v>13</v>
+      </c>
+      <c r="K122" t="n">
+        <v>15</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>4</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" t="n">
+        <v>0</v>
+      </c>
+      <c r="P122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>45680.59375</v>
+      </c>
+      <c r="B123" t="n">
+        <v>456.2999877929688</v>
+      </c>
+      <c r="C123" t="n">
+        <v>456.2999877929688</v>
+      </c>
+      <c r="D123" t="n">
+        <v>456.2999877929688</v>
+      </c>
+      <c r="E123" t="n">
+        <v>456.2999877929688</v>
+      </c>
+      <c r="F123" t="n">
+        <v>700</v>
+      </c>
+      <c r="G123" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>23</v>
+      </c>
+      <c r="J123" t="n">
+        <v>14</v>
+      </c>
+      <c r="K123" t="n">
+        <v>15</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>4</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0</v>
+      </c>
+      <c r="O123" t="n">
+        <v>0</v>
+      </c>
+      <c r="P123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>45680.63541666666</v>
+      </c>
+      <c r="B124" t="n">
+        <v>456.2999877929688</v>
+      </c>
+      <c r="C124" t="n">
+        <v>456.2999877929688</v>
+      </c>
+      <c r="D124" t="n">
+        <v>456.2999877929688</v>
+      </c>
+      <c r="E124" t="n">
+        <v>456.2999877929688</v>
+      </c>
+      <c r="F124" t="n">
+        <v>350</v>
+      </c>
+      <c r="G124" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>23</v>
+      </c>
+      <c r="J124" t="n">
+        <v>15</v>
+      </c>
+      <c r="K124" t="n">
+        <v>15</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>4</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" t="n">
+        <v>0</v>
+      </c>
+      <c r="P124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>45681.42708333334</v>
+      </c>
+      <c r="B125" t="n">
+        <v>447.2000122070312</v>
+      </c>
+      <c r="C125" t="n">
+        <v>447.2000122070312</v>
+      </c>
+      <c r="D125" t="n">
+        <v>447.2000122070312</v>
+      </c>
+      <c r="E125" t="n">
+        <v>447.2000122070312</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>24</v>
+      </c>
+      <c r="J125" t="n">
+        <v>10</v>
+      </c>
+      <c r="K125" t="n">
+        <v>15</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>4</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" t="n">
+        <v>0</v>
+      </c>
+      <c r="P125" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>45681.46875</v>
+      </c>
+      <c r="B126" t="n">
+        <v>447.2000122070312</v>
+      </c>
+      <c r="C126" t="n">
+        <v>447.2000122070312</v>
+      </c>
+      <c r="D126" t="n">
+        <v>447.2000122070312</v>
+      </c>
+      <c r="E126" t="n">
+        <v>447.2000122070312</v>
+      </c>
+      <c r="F126" t="n">
+        <v>175</v>
+      </c>
+      <c r="G126" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>24</v>
+      </c>
+      <c r="J126" t="n">
+        <v>11</v>
+      </c>
+      <c r="K126" t="n">
+        <v>15</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>4</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0</v>
+      </c>
+      <c r="O126" t="n">
+        <v>0</v>
+      </c>
+      <c r="P126" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>45681.51041666666</v>
+      </c>
+      <c r="B127" t="n">
+        <v>447.2000122070312</v>
+      </c>
+      <c r="C127" t="n">
+        <v>447.2000122070312</v>
+      </c>
+      <c r="D127" t="n">
+        <v>447.2000122070312</v>
+      </c>
+      <c r="E127" t="n">
+        <v>447.2000122070312</v>
+      </c>
+      <c r="F127" t="n">
+        <v>525</v>
+      </c>
+      <c r="G127" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>24</v>
+      </c>
+      <c r="J127" t="n">
+        <v>12</v>
+      </c>
+      <c r="K127" t="n">
+        <v>15</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>4</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0</v>
+      </c>
+      <c r="O127" t="n">
+        <v>0</v>
+      </c>
+      <c r="P127" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q127" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/WAAREE.BO.xlsx
+++ b/stock_historical_data/60m/WAAREE.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q127"/>
+  <dimension ref="A1:Q133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6713,7 +6713,7 @@
         <v>4</v>
       </c>
       <c r="N118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O118" t="n">
         <v>0</v>
@@ -6774,7 +6774,9 @@
       <c r="P119" t="n">
         <v>0</v>
       </c>
-      <c r="Q119" t="inlineStr"/>
+      <c r="Q119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6825,7 +6827,9 @@
       <c r="P120" t="n">
         <v>0</v>
       </c>
-      <c r="Q120" t="inlineStr"/>
+      <c r="Q120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6876,7 +6880,9 @@
       <c r="P121" t="n">
         <v>0</v>
       </c>
-      <c r="Q121" t="inlineStr"/>
+      <c r="Q121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6927,7 +6933,9 @@
       <c r="P122" t="n">
         <v>0</v>
       </c>
-      <c r="Q122" t="inlineStr"/>
+      <c r="Q122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6978,7 +6986,9 @@
       <c r="P123" t="n">
         <v>0</v>
       </c>
-      <c r="Q123" t="inlineStr"/>
+      <c r="Q123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -7029,7 +7039,9 @@
       <c r="P124" t="n">
         <v>0</v>
       </c>
-      <c r="Q124" t="inlineStr"/>
+      <c r="Q124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -7080,7 +7092,9 @@
       <c r="P125" t="n">
         <v>2</v>
       </c>
-      <c r="Q125" t="inlineStr"/>
+      <c r="Q125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -7131,7 +7145,9 @@
       <c r="P126" t="n">
         <v>2</v>
       </c>
-      <c r="Q126" t="inlineStr"/>
+      <c r="Q126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -7182,7 +7198,315 @@
       <c r="P127" t="n">
         <v>2</v>
       </c>
-      <c r="Q127" t="inlineStr"/>
+      <c r="Q127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>45684.42708333334</v>
+      </c>
+      <c r="B128" t="n">
+        <v>438.2999877929688</v>
+      </c>
+      <c r="C128" t="n">
+        <v>438.2999877929688</v>
+      </c>
+      <c r="D128" t="n">
+        <v>438.2999877929688</v>
+      </c>
+      <c r="E128" t="n">
+        <v>438.2999877929688</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>27</v>
+      </c>
+      <c r="J128" t="n">
+        <v>10</v>
+      </c>
+      <c r="K128" t="n">
+        <v>15</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>5</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0</v>
+      </c>
+      <c r="O128" t="n">
+        <v>0</v>
+      </c>
+      <c r="P128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>45684.46875</v>
+      </c>
+      <c r="B129" t="n">
+        <v>438.2999877929688</v>
+      </c>
+      <c r="C129" t="n">
+        <v>438.2999877929688</v>
+      </c>
+      <c r="D129" t="n">
+        <v>438.2999877929688</v>
+      </c>
+      <c r="E129" t="n">
+        <v>438.2999877929688</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1050</v>
+      </c>
+      <c r="G129" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>27</v>
+      </c>
+      <c r="J129" t="n">
+        <v>11</v>
+      </c>
+      <c r="K129" t="n">
+        <v>15</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>5</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0</v>
+      </c>
+      <c r="O129" t="n">
+        <v>0</v>
+      </c>
+      <c r="P129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>45684.51041666666</v>
+      </c>
+      <c r="B130" t="n">
+        <v>438.2999877929688</v>
+      </c>
+      <c r="C130" t="n">
+        <v>438.2999877929688</v>
+      </c>
+      <c r="D130" t="n">
+        <v>438.2999877929688</v>
+      </c>
+      <c r="E130" t="n">
+        <v>438.2999877929688</v>
+      </c>
+      <c r="F130" t="n">
+        <v>700</v>
+      </c>
+      <c r="G130" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>27</v>
+      </c>
+      <c r="J130" t="n">
+        <v>12</v>
+      </c>
+      <c r="K130" t="n">
+        <v>15</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>5</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0</v>
+      </c>
+      <c r="O130" t="n">
+        <v>0</v>
+      </c>
+      <c r="P130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>45684.55208333334</v>
+      </c>
+      <c r="B131" t="n">
+        <v>438.2999877929688</v>
+      </c>
+      <c r="C131" t="n">
+        <v>438.2999877929688</v>
+      </c>
+      <c r="D131" t="n">
+        <v>438.2999877929688</v>
+      </c>
+      <c r="E131" t="n">
+        <v>438.2999877929688</v>
+      </c>
+      <c r="F131" t="n">
+        <v>350</v>
+      </c>
+      <c r="G131" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>27</v>
+      </c>
+      <c r="J131" t="n">
+        <v>13</v>
+      </c>
+      <c r="K131" t="n">
+        <v>15</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>5</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0</v>
+      </c>
+      <c r="O131" t="n">
+        <v>0</v>
+      </c>
+      <c r="P131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>45684.59375</v>
+      </c>
+      <c r="B132" t="n">
+        <v>438.2999877929688</v>
+      </c>
+      <c r="C132" t="n">
+        <v>438.2999877929688</v>
+      </c>
+      <c r="D132" t="n">
+        <v>438.2999877929688</v>
+      </c>
+      <c r="E132" t="n">
+        <v>438.2999877929688</v>
+      </c>
+      <c r="F132" t="n">
+        <v>525</v>
+      </c>
+      <c r="G132" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>27</v>
+      </c>
+      <c r="J132" t="n">
+        <v>14</v>
+      </c>
+      <c r="K132" t="n">
+        <v>15</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>5</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0</v>
+      </c>
+      <c r="O132" t="n">
+        <v>0</v>
+      </c>
+      <c r="P132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>45684.63541666666</v>
+      </c>
+      <c r="B133" t="n">
+        <v>438.2999877929688</v>
+      </c>
+      <c r="C133" t="n">
+        <v>438.2999877929688</v>
+      </c>
+      <c r="D133" t="n">
+        <v>438.2999877929688</v>
+      </c>
+      <c r="E133" t="n">
+        <v>438.2999877929688</v>
+      </c>
+      <c r="F133" t="n">
+        <v>525</v>
+      </c>
+      <c r="G133" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>27</v>
+      </c>
+      <c r="J133" t="n">
+        <v>15</v>
+      </c>
+      <c r="K133" t="n">
+        <v>15</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>5</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0</v>
+      </c>
+      <c r="O133" t="n">
+        <v>0</v>
+      </c>
+      <c r="P133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q133" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/WAAREE.BO.xlsx
+++ b/stock_historical_data/60m/WAAREE.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q133"/>
+  <dimension ref="A1:Q144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7251,7 +7251,9 @@
       <c r="P128" t="n">
         <v>0</v>
       </c>
-      <c r="Q128" t="inlineStr"/>
+      <c r="Q128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -7302,7 +7304,9 @@
       <c r="P129" t="n">
         <v>0</v>
       </c>
-      <c r="Q129" t="inlineStr"/>
+      <c r="Q129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -7353,7 +7357,9 @@
       <c r="P130" t="n">
         <v>0</v>
       </c>
-      <c r="Q130" t="inlineStr"/>
+      <c r="Q130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -7404,7 +7410,9 @@
       <c r="P131" t="n">
         <v>0</v>
       </c>
-      <c r="Q131" t="inlineStr"/>
+      <c r="Q131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -7455,7 +7463,9 @@
       <c r="P132" t="n">
         <v>0</v>
       </c>
-      <c r="Q132" t="inlineStr"/>
+      <c r="Q132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -7506,7 +7516,570 @@
       <c r="P133" t="n">
         <v>0</v>
       </c>
-      <c r="Q133" t="inlineStr"/>
+      <c r="Q133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>45685.42708333334</v>
+      </c>
+      <c r="B134" t="n">
+        <v>429.5499877929688</v>
+      </c>
+      <c r="C134" t="n">
+        <v>429.5499877929688</v>
+      </c>
+      <c r="D134" t="n">
+        <v>429.5499877929688</v>
+      </c>
+      <c r="E134" t="n">
+        <v>429.5499877929688</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>28</v>
+      </c>
+      <c r="J134" t="n">
+        <v>10</v>
+      </c>
+      <c r="K134" t="n">
+        <v>15</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" t="n">
+        <v>5</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0</v>
+      </c>
+      <c r="O134" t="n">
+        <v>0</v>
+      </c>
+      <c r="P134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>45685.46875</v>
+      </c>
+      <c r="B135" t="n">
+        <v>429.5499877929688</v>
+      </c>
+      <c r="C135" t="n">
+        <v>429.5499877929688</v>
+      </c>
+      <c r="D135" t="n">
+        <v>429.5499877929688</v>
+      </c>
+      <c r="E135" t="n">
+        <v>429.5499877929688</v>
+      </c>
+      <c r="F135" t="n">
+        <v>525</v>
+      </c>
+      <c r="G135" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>28</v>
+      </c>
+      <c r="J135" t="n">
+        <v>11</v>
+      </c>
+      <c r="K135" t="n">
+        <v>15</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>5</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0</v>
+      </c>
+      <c r="O135" t="n">
+        <v>0</v>
+      </c>
+      <c r="P135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>45685.51041666666</v>
+      </c>
+      <c r="B136" t="n">
+        <v>429.5499877929688</v>
+      </c>
+      <c r="C136" t="n">
+        <v>429.5499877929688</v>
+      </c>
+      <c r="D136" t="n">
+        <v>429.5499877929688</v>
+      </c>
+      <c r="E136" t="n">
+        <v>429.5499877929688</v>
+      </c>
+      <c r="F136" t="n">
+        <v>350</v>
+      </c>
+      <c r="G136" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>28</v>
+      </c>
+      <c r="J136" t="n">
+        <v>12</v>
+      </c>
+      <c r="K136" t="n">
+        <v>15</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>5</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" t="n">
+        <v>0</v>
+      </c>
+      <c r="P136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>45685.59375</v>
+      </c>
+      <c r="B137" t="n">
+        <v>429.5499877929688</v>
+      </c>
+      <c r="C137" t="n">
+        <v>429.5499877929688</v>
+      </c>
+      <c r="D137" t="n">
+        <v>429.5499877929688</v>
+      </c>
+      <c r="E137" t="n">
+        <v>429.5499877929688</v>
+      </c>
+      <c r="F137" t="n">
+        <v>175</v>
+      </c>
+      <c r="G137" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>28</v>
+      </c>
+      <c r="J137" t="n">
+        <v>14</v>
+      </c>
+      <c r="K137" t="n">
+        <v>15</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M137" t="n">
+        <v>5</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0</v>
+      </c>
+      <c r="O137" t="n">
+        <v>0</v>
+      </c>
+      <c r="P137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>45685.63541666666</v>
+      </c>
+      <c r="B138" t="n">
+        <v>429.5499877929688</v>
+      </c>
+      <c r="C138" t="n">
+        <v>429.5499877929688</v>
+      </c>
+      <c r="D138" t="n">
+        <v>429.5499877929688</v>
+      </c>
+      <c r="E138" t="n">
+        <v>429.5499877929688</v>
+      </c>
+      <c r="F138" t="n">
+        <v>175</v>
+      </c>
+      <c r="G138" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>28</v>
+      </c>
+      <c r="J138" t="n">
+        <v>15</v>
+      </c>
+      <c r="K138" t="n">
+        <v>15</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" t="n">
+        <v>5</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" t="n">
+        <v>0</v>
+      </c>
+      <c r="P138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>45686.42708333334</v>
+      </c>
+      <c r="B139" t="n">
+        <v>421</v>
+      </c>
+      <c r="C139" t="n">
+        <v>421</v>
+      </c>
+      <c r="D139" t="n">
+        <v>421</v>
+      </c>
+      <c r="E139" t="n">
+        <v>421</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>29</v>
+      </c>
+      <c r="J139" t="n">
+        <v>10</v>
+      </c>
+      <c r="K139" t="n">
+        <v>15</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>5</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" t="n">
+        <v>0</v>
+      </c>
+      <c r="P139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>45686.46875</v>
+      </c>
+      <c r="B140" t="n">
+        <v>421</v>
+      </c>
+      <c r="C140" t="n">
+        <v>421</v>
+      </c>
+      <c r="D140" t="n">
+        <v>421</v>
+      </c>
+      <c r="E140" t="n">
+        <v>421</v>
+      </c>
+      <c r="F140" t="n">
+        <v>525</v>
+      </c>
+      <c r="G140" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>29</v>
+      </c>
+      <c r="J140" t="n">
+        <v>11</v>
+      </c>
+      <c r="K140" t="n">
+        <v>15</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" t="n">
+        <v>5</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" t="n">
+        <v>0</v>
+      </c>
+      <c r="P140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>45686.51041666666</v>
+      </c>
+      <c r="B141" t="n">
+        <v>425.6499938964844</v>
+      </c>
+      <c r="C141" t="n">
+        <v>425.6499938964844</v>
+      </c>
+      <c r="D141" t="n">
+        <v>425.6499938964844</v>
+      </c>
+      <c r="E141" t="n">
+        <v>425.6499938964844</v>
+      </c>
+      <c r="F141" t="n">
+        <v>19425</v>
+      </c>
+      <c r="G141" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>29</v>
+      </c>
+      <c r="J141" t="n">
+        <v>12</v>
+      </c>
+      <c r="K141" t="n">
+        <v>15</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M141" t="n">
+        <v>5</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" t="n">
+        <v>0</v>
+      </c>
+      <c r="P141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>45686.55208333334</v>
+      </c>
+      <c r="B142" t="n">
+        <v>421</v>
+      </c>
+      <c r="C142" t="n">
+        <v>421</v>
+      </c>
+      <c r="D142" t="n">
+        <v>421</v>
+      </c>
+      <c r="E142" t="n">
+        <v>421</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1400</v>
+      </c>
+      <c r="G142" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>29</v>
+      </c>
+      <c r="J142" t="n">
+        <v>13</v>
+      </c>
+      <c r="K142" t="n">
+        <v>15</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M142" t="n">
+        <v>5</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0</v>
+      </c>
+      <c r="O142" t="n">
+        <v>0</v>
+      </c>
+      <c r="P142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>45686.59375</v>
+      </c>
+      <c r="B143" t="n">
+        <v>421</v>
+      </c>
+      <c r="C143" t="n">
+        <v>421</v>
+      </c>
+      <c r="D143" t="n">
+        <v>421</v>
+      </c>
+      <c r="E143" t="n">
+        <v>421</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1400</v>
+      </c>
+      <c r="G143" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>29</v>
+      </c>
+      <c r="J143" t="n">
+        <v>14</v>
+      </c>
+      <c r="K143" t="n">
+        <v>15</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M143" t="n">
+        <v>5</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0</v>
+      </c>
+      <c r="O143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>45686.63541666666</v>
+      </c>
+      <c r="B144" t="n">
+        <v>421</v>
+      </c>
+      <c r="C144" t="n">
+        <v>421</v>
+      </c>
+      <c r="D144" t="n">
+        <v>421</v>
+      </c>
+      <c r="E144" t="n">
+        <v>421</v>
+      </c>
+      <c r="F144" t="n">
+        <v>350</v>
+      </c>
+      <c r="G144" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>29</v>
+      </c>
+      <c r="J144" t="n">
+        <v>15</v>
+      </c>
+      <c r="K144" t="n">
+        <v>15</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>5</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0</v>
+      </c>
+      <c r="O144" t="n">
+        <v>0</v>
+      </c>
+      <c r="P144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q144" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/WAAREE.BO.xlsx
+++ b/stock_historical_data/60m/WAAREE.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q144"/>
+  <dimension ref="A1:Q156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7569,7 +7569,9 @@
       <c r="P134" t="n">
         <v>0</v>
       </c>
-      <c r="Q134" t="inlineStr"/>
+      <c r="Q134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -7620,7 +7622,9 @@
       <c r="P135" t="n">
         <v>0</v>
       </c>
-      <c r="Q135" t="inlineStr"/>
+      <c r="Q135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -7671,7 +7675,9 @@
       <c r="P136" t="n">
         <v>0</v>
       </c>
-      <c r="Q136" t="inlineStr"/>
+      <c r="Q136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7722,7 +7728,9 @@
       <c r="P137" t="n">
         <v>0</v>
       </c>
-      <c r="Q137" t="inlineStr"/>
+      <c r="Q137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7773,7 +7781,9 @@
       <c r="P138" t="n">
         <v>0</v>
       </c>
-      <c r="Q138" t="inlineStr"/>
+      <c r="Q138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7824,7 +7834,9 @@
       <c r="P139" t="n">
         <v>0</v>
       </c>
-      <c r="Q139" t="inlineStr"/>
+      <c r="Q139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7875,7 +7887,9 @@
       <c r="P140" t="n">
         <v>0</v>
       </c>
-      <c r="Q140" t="inlineStr"/>
+      <c r="Q140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7926,7 +7940,9 @@
       <c r="P141" t="n">
         <v>0</v>
       </c>
-      <c r="Q141" t="inlineStr"/>
+      <c r="Q141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7977,7 +7993,9 @@
       <c r="P142" t="n">
         <v>0</v>
       </c>
-      <c r="Q142" t="inlineStr"/>
+      <c r="Q142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -8028,7 +8046,9 @@
       <c r="P143" t="n">
         <v>0</v>
       </c>
-      <c r="Q143" t="inlineStr"/>
+      <c r="Q143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -8079,7 +8099,621 @@
       <c r="P144" t="n">
         <v>0</v>
       </c>
-      <c r="Q144" t="inlineStr"/>
+      <c r="Q144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>45687.42708333334</v>
+      </c>
+      <c r="B145" t="n">
+        <v>412.6000061035156</v>
+      </c>
+      <c r="C145" t="n">
+        <v>412.6000061035156</v>
+      </c>
+      <c r="D145" t="n">
+        <v>412.6000061035156</v>
+      </c>
+      <c r="E145" t="n">
+        <v>412.6000061035156</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>30</v>
+      </c>
+      <c r="J145" t="n">
+        <v>10</v>
+      </c>
+      <c r="K145" t="n">
+        <v>15</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" t="n">
+        <v>5</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0</v>
+      </c>
+      <c r="O145" t="n">
+        <v>0</v>
+      </c>
+      <c r="P145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>45687.46875</v>
+      </c>
+      <c r="B146" t="n">
+        <v>412.6000061035156</v>
+      </c>
+      <c r="C146" t="n">
+        <v>412.6000061035156</v>
+      </c>
+      <c r="D146" t="n">
+        <v>412.6000061035156</v>
+      </c>
+      <c r="E146" t="n">
+        <v>412.6000061035156</v>
+      </c>
+      <c r="F146" t="n">
+        <v>175</v>
+      </c>
+      <c r="G146" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>30</v>
+      </c>
+      <c r="J146" t="n">
+        <v>11</v>
+      </c>
+      <c r="K146" t="n">
+        <v>15</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M146" t="n">
+        <v>5</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" t="n">
+        <v>0</v>
+      </c>
+      <c r="P146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>45687.51041666666</v>
+      </c>
+      <c r="B147" t="n">
+        <v>412.6000061035156</v>
+      </c>
+      <c r="C147" t="n">
+        <v>412.6000061035156</v>
+      </c>
+      <c r="D147" t="n">
+        <v>412.6000061035156</v>
+      </c>
+      <c r="E147" t="n">
+        <v>412.6000061035156</v>
+      </c>
+      <c r="F147" t="n">
+        <v>175</v>
+      </c>
+      <c r="G147" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>30</v>
+      </c>
+      <c r="J147" t="n">
+        <v>12</v>
+      </c>
+      <c r="K147" t="n">
+        <v>15</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" t="n">
+        <v>5</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0</v>
+      </c>
+      <c r="O147" t="n">
+        <v>0</v>
+      </c>
+      <c r="P147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>45687.55208333334</v>
+      </c>
+      <c r="B148" t="n">
+        <v>412.6000061035156</v>
+      </c>
+      <c r="C148" t="n">
+        <v>412.6000061035156</v>
+      </c>
+      <c r="D148" t="n">
+        <v>412.6000061035156</v>
+      </c>
+      <c r="E148" t="n">
+        <v>412.6000061035156</v>
+      </c>
+      <c r="F148" t="n">
+        <v>175</v>
+      </c>
+      <c r="G148" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>30</v>
+      </c>
+      <c r="J148" t="n">
+        <v>13</v>
+      </c>
+      <c r="K148" t="n">
+        <v>15</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" t="n">
+        <v>5</v>
+      </c>
+      <c r="N148" t="n">
+        <v>0</v>
+      </c>
+      <c r="O148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>45687.59375</v>
+      </c>
+      <c r="B149" t="n">
+        <v>412.6000061035156</v>
+      </c>
+      <c r="C149" t="n">
+        <v>412.6000061035156</v>
+      </c>
+      <c r="D149" t="n">
+        <v>412.6000061035156</v>
+      </c>
+      <c r="E149" t="n">
+        <v>412.6000061035156</v>
+      </c>
+      <c r="F149" t="n">
+        <v>175</v>
+      </c>
+      <c r="G149" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>30</v>
+      </c>
+      <c r="J149" t="n">
+        <v>14</v>
+      </c>
+      <c r="K149" t="n">
+        <v>15</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
+        <v>5</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0</v>
+      </c>
+      <c r="O149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>45687.63541666666</v>
+      </c>
+      <c r="B150" t="n">
+        <v>412.6000061035156</v>
+      </c>
+      <c r="C150" t="n">
+        <v>412.6000061035156</v>
+      </c>
+      <c r="D150" t="n">
+        <v>412.6000061035156</v>
+      </c>
+      <c r="E150" t="n">
+        <v>412.6000061035156</v>
+      </c>
+      <c r="F150" t="n">
+        <v>350</v>
+      </c>
+      <c r="G150" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>30</v>
+      </c>
+      <c r="J150" t="n">
+        <v>15</v>
+      </c>
+      <c r="K150" t="n">
+        <v>15</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" t="n">
+        <v>5</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0</v>
+      </c>
+      <c r="O150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>45688.42708333334</v>
+      </c>
+      <c r="B151" t="n">
+        <v>406</v>
+      </c>
+      <c r="C151" t="n">
+        <v>406</v>
+      </c>
+      <c r="D151" t="n">
+        <v>406</v>
+      </c>
+      <c r="E151" t="n">
+        <v>406</v>
+      </c>
+      <c r="F151" t="n">
+        <v>7875</v>
+      </c>
+      <c r="G151" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>31</v>
+      </c>
+      <c r="J151" t="n">
+        <v>10</v>
+      </c>
+      <c r="K151" t="n">
+        <v>15</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M151" t="n">
+        <v>5</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0</v>
+      </c>
+      <c r="O151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>45688.46875</v>
+      </c>
+      <c r="B152" t="n">
+        <v>406.5</v>
+      </c>
+      <c r="C152" t="n">
+        <v>406.5</v>
+      </c>
+      <c r="D152" t="n">
+        <v>406.5</v>
+      </c>
+      <c r="E152" t="n">
+        <v>406.5</v>
+      </c>
+      <c r="F152" t="n">
+        <v>4725</v>
+      </c>
+      <c r="G152" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>31</v>
+      </c>
+      <c r="J152" t="n">
+        <v>11</v>
+      </c>
+      <c r="K152" t="n">
+        <v>15</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M152" t="n">
+        <v>5</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0</v>
+      </c>
+      <c r="O152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>45688.51041666666</v>
+      </c>
+      <c r="B153" t="n">
+        <v>406.5</v>
+      </c>
+      <c r="C153" t="n">
+        <v>406.5</v>
+      </c>
+      <c r="D153" t="n">
+        <v>406.5</v>
+      </c>
+      <c r="E153" t="n">
+        <v>406.5</v>
+      </c>
+      <c r="F153" t="n">
+        <v>6650</v>
+      </c>
+      <c r="G153" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>31</v>
+      </c>
+      <c r="J153" t="n">
+        <v>12</v>
+      </c>
+      <c r="K153" t="n">
+        <v>15</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M153" t="n">
+        <v>5</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0</v>
+      </c>
+      <c r="O153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>45688.55208333334</v>
+      </c>
+      <c r="B154" t="n">
+        <v>410</v>
+      </c>
+      <c r="C154" t="n">
+        <v>410</v>
+      </c>
+      <c r="D154" t="n">
+        <v>410</v>
+      </c>
+      <c r="E154" t="n">
+        <v>410</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2100</v>
+      </c>
+      <c r="G154" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>31</v>
+      </c>
+      <c r="J154" t="n">
+        <v>13</v>
+      </c>
+      <c r="K154" t="n">
+        <v>15</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M154" t="n">
+        <v>5</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0</v>
+      </c>
+      <c r="O154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>45688.59375</v>
+      </c>
+      <c r="B155" t="n">
+        <v>404.3500061035156</v>
+      </c>
+      <c r="C155" t="n">
+        <v>404.3500061035156</v>
+      </c>
+      <c r="D155" t="n">
+        <v>404.3500061035156</v>
+      </c>
+      <c r="E155" t="n">
+        <v>404.3500061035156</v>
+      </c>
+      <c r="F155" t="n">
+        <v>6125</v>
+      </c>
+      <c r="G155" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>31</v>
+      </c>
+      <c r="J155" t="n">
+        <v>14</v>
+      </c>
+      <c r="K155" t="n">
+        <v>15</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M155" t="n">
+        <v>5</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>45688.63541666666</v>
+      </c>
+      <c r="B156" t="n">
+        <v>404.3500061035156</v>
+      </c>
+      <c r="C156" t="n">
+        <v>404.3500061035156</v>
+      </c>
+      <c r="D156" t="n">
+        <v>404.3500061035156</v>
+      </c>
+      <c r="E156" t="n">
+        <v>404.3500061035156</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1400</v>
+      </c>
+      <c r="G156" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>31</v>
+      </c>
+      <c r="J156" t="n">
+        <v>15</v>
+      </c>
+      <c r="K156" t="n">
+        <v>15</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M156" t="n">
+        <v>5</v>
+      </c>
+      <c r="N156" t="n">
+        <v>0</v>
+      </c>
+      <c r="O156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q156" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/WAAREE.BO.xlsx
+++ b/stock_historical_data/60m/WAAREE.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1564"/>
+  <dimension ref="A1:Q1574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72075,6 +72075,456 @@
       <c r="P1564" t="inlineStr"/>
       <c r="Q1564" t="inlineStr"/>
     </row>
+    <row r="1565">
+      <c r="A1565" s="2" t="n">
+        <v>45698.42708333334</v>
+      </c>
+      <c r="B1565" t="n">
+        <v>380.5499877929688</v>
+      </c>
+      <c r="C1565" t="n">
+        <v>380.5499877929688</v>
+      </c>
+      <c r="D1565" t="n">
+        <v>380.5499877929688</v>
+      </c>
+      <c r="E1565" t="n">
+        <v>380.5499877929688</v>
+      </c>
+      <c r="F1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1565" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1565" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1565" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1565" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1565" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1565" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1565" t="inlineStr"/>
+      <c r="O1565" t="inlineStr"/>
+      <c r="P1565" t="inlineStr"/>
+      <c r="Q1565" t="inlineStr"/>
+    </row>
+    <row r="1566">
+      <c r="A1566" s="2" t="n">
+        <v>45698.46875</v>
+      </c>
+      <c r="B1566" t="n">
+        <v>380.3500061035156</v>
+      </c>
+      <c r="C1566" t="n">
+        <v>380.3500061035156</v>
+      </c>
+      <c r="D1566" t="n">
+        <v>380.3500061035156</v>
+      </c>
+      <c r="E1566" t="n">
+        <v>380.3500061035156</v>
+      </c>
+      <c r="F1566" t="n">
+        <v>5950</v>
+      </c>
+      <c r="G1566" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1566" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1566" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1566" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1566" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1566" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1566" t="inlineStr"/>
+      <c r="O1566" t="inlineStr"/>
+      <c r="P1566" t="inlineStr"/>
+      <c r="Q1566" t="inlineStr"/>
+    </row>
+    <row r="1567">
+      <c r="A1567" s="2" t="n">
+        <v>45698.55208333334</v>
+      </c>
+      <c r="B1567" t="n">
+        <v>380.3500061035156</v>
+      </c>
+      <c r="C1567" t="n">
+        <v>380.3500061035156</v>
+      </c>
+      <c r="D1567" t="n">
+        <v>380.3500061035156</v>
+      </c>
+      <c r="E1567" t="n">
+        <v>380.3500061035156</v>
+      </c>
+      <c r="F1567" t="n">
+        <v>350</v>
+      </c>
+      <c r="G1567" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1567" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1567" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1567" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1567" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1567" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1567" t="inlineStr"/>
+      <c r="O1567" t="inlineStr"/>
+      <c r="P1567" t="inlineStr"/>
+      <c r="Q1567" t="inlineStr"/>
+    </row>
+    <row r="1568">
+      <c r="A1568" s="2" t="n">
+        <v>45698.59375</v>
+      </c>
+      <c r="B1568" t="n">
+        <v>380.3500061035156</v>
+      </c>
+      <c r="C1568" t="n">
+        <v>380.3500061035156</v>
+      </c>
+      <c r="D1568" t="n">
+        <v>380.3500061035156</v>
+      </c>
+      <c r="E1568" t="n">
+        <v>380.3500061035156</v>
+      </c>
+      <c r="F1568" t="n">
+        <v>350</v>
+      </c>
+      <c r="G1568" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1568" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1568" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1568" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1568" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1568" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1568" t="inlineStr"/>
+      <c r="O1568" t="inlineStr"/>
+      <c r="P1568" t="inlineStr"/>
+      <c r="Q1568" t="inlineStr"/>
+    </row>
+    <row r="1569">
+      <c r="A1569" s="2" t="n">
+        <v>45699.42708333334</v>
+      </c>
+      <c r="B1569" t="n">
+        <v>372.75</v>
+      </c>
+      <c r="C1569" t="n">
+        <v>372.75</v>
+      </c>
+      <c r="D1569" t="n">
+        <v>372.75</v>
+      </c>
+      <c r="E1569" t="n">
+        <v>372.75</v>
+      </c>
+      <c r="F1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1569" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1569" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1569" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1569" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1569" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1569" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1569" t="inlineStr"/>
+      <c r="O1569" t="inlineStr"/>
+      <c r="P1569" t="inlineStr"/>
+      <c r="Q1569" t="inlineStr"/>
+    </row>
+    <row r="1570">
+      <c r="A1570" s="2" t="n">
+        <v>45699.46875</v>
+      </c>
+      <c r="B1570" t="n">
+        <v>372.75</v>
+      </c>
+      <c r="C1570" t="n">
+        <v>372.75</v>
+      </c>
+      <c r="D1570" t="n">
+        <v>372.75</v>
+      </c>
+      <c r="E1570" t="n">
+        <v>372.75</v>
+      </c>
+      <c r="F1570" t="n">
+        <v>700</v>
+      </c>
+      <c r="G1570" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1570" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1570" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1570" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1570" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1570" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1570" t="inlineStr"/>
+      <c r="O1570" t="inlineStr"/>
+      <c r="P1570" t="inlineStr"/>
+      <c r="Q1570" t="inlineStr"/>
+    </row>
+    <row r="1571">
+      <c r="A1571" s="2" t="n">
+        <v>45699.51041666666</v>
+      </c>
+      <c r="B1571" t="n">
+        <v>372.75</v>
+      </c>
+      <c r="C1571" t="n">
+        <v>372.75</v>
+      </c>
+      <c r="D1571" t="n">
+        <v>372.75</v>
+      </c>
+      <c r="E1571" t="n">
+        <v>372.75</v>
+      </c>
+      <c r="F1571" t="n">
+        <v>175</v>
+      </c>
+      <c r="G1571" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1571" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1571" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1571" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1571" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1571" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1571" t="inlineStr"/>
+      <c r="O1571" t="inlineStr"/>
+      <c r="P1571" t="inlineStr"/>
+      <c r="Q1571" t="inlineStr"/>
+    </row>
+    <row r="1572">
+      <c r="A1572" s="2" t="n">
+        <v>45699.55208333334</v>
+      </c>
+      <c r="B1572" t="n">
+        <v>372.75</v>
+      </c>
+      <c r="C1572" t="n">
+        <v>372.75</v>
+      </c>
+      <c r="D1572" t="n">
+        <v>372.75</v>
+      </c>
+      <c r="E1572" t="n">
+        <v>372.75</v>
+      </c>
+      <c r="F1572" t="n">
+        <v>1050</v>
+      </c>
+      <c r="G1572" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1572" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1572" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1572" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1572" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1572" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1572" t="inlineStr"/>
+      <c r="O1572" t="inlineStr"/>
+      <c r="P1572" t="inlineStr"/>
+      <c r="Q1572" t="inlineStr"/>
+    </row>
+    <row r="1573">
+      <c r="A1573" s="2" t="n">
+        <v>45699.59375</v>
+      </c>
+      <c r="B1573" t="n">
+        <v>372.75</v>
+      </c>
+      <c r="C1573" t="n">
+        <v>372.75</v>
+      </c>
+      <c r="D1573" t="n">
+        <v>372.75</v>
+      </c>
+      <c r="E1573" t="n">
+        <v>372.75</v>
+      </c>
+      <c r="F1573" t="n">
+        <v>175</v>
+      </c>
+      <c r="G1573" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1573" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1573" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1573" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1573" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1573" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1573" t="inlineStr"/>
+      <c r="O1573" t="inlineStr"/>
+      <c r="P1573" t="inlineStr"/>
+      <c r="Q1573" t="inlineStr"/>
+    </row>
+    <row r="1574">
+      <c r="A1574" s="2" t="n">
+        <v>45699.63541666666</v>
+      </c>
+      <c r="B1574" t="n">
+        <v>372.75</v>
+      </c>
+      <c r="C1574" t="n">
+        <v>372.75</v>
+      </c>
+      <c r="D1574" t="n">
+        <v>372.75</v>
+      </c>
+      <c r="E1574" t="n">
+        <v>372.75</v>
+      </c>
+      <c r="F1574" t="n">
+        <v>700</v>
+      </c>
+      <c r="G1574" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1574" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1574" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1574" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1574" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1574" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1574" t="inlineStr"/>
+      <c r="O1574" t="inlineStr"/>
+      <c r="P1574" t="inlineStr"/>
+      <c r="Q1574" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/60m/WAAREE.BO.xlsx
+++ b/stock_historical_data/60m/WAAREE.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1574"/>
+  <dimension ref="A1:Q1586"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72525,6 +72525,546 @@
       <c r="P1574" t="inlineStr"/>
       <c r="Q1574" t="inlineStr"/>
     </row>
+    <row r="1575">
+      <c r="A1575" s="2" t="n">
+        <v>45700.42708333334</v>
+      </c>
+      <c r="B1575" t="n">
+        <v>365.2999877929688</v>
+      </c>
+      <c r="C1575" t="n">
+        <v>365.2999877929688</v>
+      </c>
+      <c r="D1575" t="n">
+        <v>365.2999877929688</v>
+      </c>
+      <c r="E1575" t="n">
+        <v>365.2999877929688</v>
+      </c>
+      <c r="F1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1575" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1575" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1575" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1575" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1575" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1575" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1575" t="inlineStr"/>
+      <c r="O1575" t="inlineStr"/>
+      <c r="P1575" t="inlineStr"/>
+      <c r="Q1575" t="inlineStr"/>
+    </row>
+    <row r="1576">
+      <c r="A1576" s="2" t="n">
+        <v>45700.46875</v>
+      </c>
+      <c r="B1576" t="n">
+        <v>365.2999877929688</v>
+      </c>
+      <c r="C1576" t="n">
+        <v>365.2999877929688</v>
+      </c>
+      <c r="D1576" t="n">
+        <v>365.2999877929688</v>
+      </c>
+      <c r="E1576" t="n">
+        <v>365.2999877929688</v>
+      </c>
+      <c r="F1576" t="n">
+        <v>875</v>
+      </c>
+      <c r="G1576" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1576" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1576" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1576" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1576" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1576" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1576" t="inlineStr"/>
+      <c r="O1576" t="inlineStr"/>
+      <c r="P1576" t="inlineStr"/>
+      <c r="Q1576" t="inlineStr"/>
+    </row>
+    <row r="1577">
+      <c r="A1577" s="2" t="n">
+        <v>45700.51041666666</v>
+      </c>
+      <c r="B1577" t="n">
+        <v>365.2999877929688</v>
+      </c>
+      <c r="C1577" t="n">
+        <v>365.2999877929688</v>
+      </c>
+      <c r="D1577" t="n">
+        <v>365.2999877929688</v>
+      </c>
+      <c r="E1577" t="n">
+        <v>365.2999877929688</v>
+      </c>
+      <c r="F1577" t="n">
+        <v>1225</v>
+      </c>
+      <c r="G1577" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1577" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1577" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1577" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1577" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1577" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1577" t="inlineStr"/>
+      <c r="O1577" t="inlineStr"/>
+      <c r="P1577" t="inlineStr"/>
+      <c r="Q1577" t="inlineStr"/>
+    </row>
+    <row r="1578">
+      <c r="A1578" s="2" t="n">
+        <v>45700.55208333334</v>
+      </c>
+      <c r="B1578" t="n">
+        <v>365.2999877929688</v>
+      </c>
+      <c r="C1578" t="n">
+        <v>365.2999877929688</v>
+      </c>
+      <c r="D1578" t="n">
+        <v>365.2999877929688</v>
+      </c>
+      <c r="E1578" t="n">
+        <v>365.2999877929688</v>
+      </c>
+      <c r="F1578" t="n">
+        <v>1050</v>
+      </c>
+      <c r="G1578" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1578" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1578" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1578" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1578" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1578" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1578" t="inlineStr"/>
+      <c r="O1578" t="inlineStr"/>
+      <c r="P1578" t="inlineStr"/>
+      <c r="Q1578" t="inlineStr"/>
+    </row>
+    <row r="1579">
+      <c r="A1579" s="2" t="n">
+        <v>45700.59375</v>
+      </c>
+      <c r="B1579" t="n">
+        <v>365.2999877929688</v>
+      </c>
+      <c r="C1579" t="n">
+        <v>365.2999877929688</v>
+      </c>
+      <c r="D1579" t="n">
+        <v>365.2999877929688</v>
+      </c>
+      <c r="E1579" t="n">
+        <v>365.2999877929688</v>
+      </c>
+      <c r="F1579" t="n">
+        <v>350</v>
+      </c>
+      <c r="G1579" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1579" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1579" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1579" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1579" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1579" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1579" t="inlineStr"/>
+      <c r="O1579" t="inlineStr"/>
+      <c r="P1579" t="inlineStr"/>
+      <c r="Q1579" t="inlineStr"/>
+    </row>
+    <row r="1580">
+      <c r="A1580" s="2" t="n">
+        <v>45700.63541666666</v>
+      </c>
+      <c r="B1580" t="n">
+        <v>365.2999877929688</v>
+      </c>
+      <c r="C1580" t="n">
+        <v>365.2999877929688</v>
+      </c>
+      <c r="D1580" t="n">
+        <v>365.2999877929688</v>
+      </c>
+      <c r="E1580" t="n">
+        <v>365.2999877929688</v>
+      </c>
+      <c r="F1580" t="n">
+        <v>1225</v>
+      </c>
+      <c r="G1580" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1580" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1580" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1580" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1580" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1580" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1580" t="inlineStr"/>
+      <c r="O1580" t="inlineStr"/>
+      <c r="P1580" t="inlineStr"/>
+      <c r="Q1580" t="inlineStr"/>
+    </row>
+    <row r="1581">
+      <c r="A1581" s="2" t="n">
+        <v>45701.42708333334</v>
+      </c>
+      <c r="B1581" t="n">
+        <v>365.2999877929688</v>
+      </c>
+      <c r="C1581" t="n">
+        <v>365.2999877929688</v>
+      </c>
+      <c r="D1581" t="n">
+        <v>365.2999877929688</v>
+      </c>
+      <c r="E1581" t="n">
+        <v>365.2999877929688</v>
+      </c>
+      <c r="F1581" t="n">
+        <v>11200</v>
+      </c>
+      <c r="G1581" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1581" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1581" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1581" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1581" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1581" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1581" t="inlineStr"/>
+      <c r="O1581" t="inlineStr"/>
+      <c r="P1581" t="inlineStr"/>
+      <c r="Q1581" t="inlineStr"/>
+    </row>
+    <row r="1582">
+      <c r="A1582" s="2" t="n">
+        <v>45701.46875</v>
+      </c>
+      <c r="B1582" t="n">
+        <v>372.6000061035156</v>
+      </c>
+      <c r="C1582" t="n">
+        <v>372.6000061035156</v>
+      </c>
+      <c r="D1582" t="n">
+        <v>372.6000061035156</v>
+      </c>
+      <c r="E1582" t="n">
+        <v>372.6000061035156</v>
+      </c>
+      <c r="F1582" t="n">
+        <v>5250</v>
+      </c>
+      <c r="G1582" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1582" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1582" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1582" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1582" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1582" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1582" t="inlineStr"/>
+      <c r="O1582" t="inlineStr"/>
+      <c r="P1582" t="inlineStr"/>
+      <c r="Q1582" t="inlineStr"/>
+    </row>
+    <row r="1583">
+      <c r="A1583" s="2" t="n">
+        <v>45701.51041666666</v>
+      </c>
+      <c r="B1583" t="n">
+        <v>372.6000061035156</v>
+      </c>
+      <c r="C1583" t="n">
+        <v>372.6000061035156</v>
+      </c>
+      <c r="D1583" t="n">
+        <v>372.6000061035156</v>
+      </c>
+      <c r="E1583" t="n">
+        <v>372.6000061035156</v>
+      </c>
+      <c r="F1583" t="n">
+        <v>875</v>
+      </c>
+      <c r="G1583" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1583" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1583" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1583" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1583" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1583" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1583" t="inlineStr"/>
+      <c r="O1583" t="inlineStr"/>
+      <c r="P1583" t="inlineStr"/>
+      <c r="Q1583" t="inlineStr"/>
+    </row>
+    <row r="1584">
+      <c r="A1584" s="2" t="n">
+        <v>45701.55208333334</v>
+      </c>
+      <c r="B1584" t="n">
+        <v>372.6000061035156</v>
+      </c>
+      <c r="C1584" t="n">
+        <v>372.6000061035156</v>
+      </c>
+      <c r="D1584" t="n">
+        <v>372.6000061035156</v>
+      </c>
+      <c r="E1584" t="n">
+        <v>372.6000061035156</v>
+      </c>
+      <c r="F1584" t="n">
+        <v>700</v>
+      </c>
+      <c r="G1584" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1584" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1584" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1584" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1584" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1584" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1584" t="inlineStr"/>
+      <c r="O1584" t="inlineStr"/>
+      <c r="P1584" t="inlineStr"/>
+      <c r="Q1584" t="inlineStr"/>
+    </row>
+    <row r="1585">
+      <c r="A1585" s="2" t="n">
+        <v>45701.59375</v>
+      </c>
+      <c r="B1585" t="n">
+        <v>372.6000061035156</v>
+      </c>
+      <c r="C1585" t="n">
+        <v>372.6000061035156</v>
+      </c>
+      <c r="D1585" t="n">
+        <v>372.6000061035156</v>
+      </c>
+      <c r="E1585" t="n">
+        <v>372.6000061035156</v>
+      </c>
+      <c r="F1585" t="n">
+        <v>6825</v>
+      </c>
+      <c r="G1585" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1585" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1585" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1585" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1585" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1585" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1585" t="inlineStr"/>
+      <c r="O1585" t="inlineStr"/>
+      <c r="P1585" t="inlineStr"/>
+      <c r="Q1585" t="inlineStr"/>
+    </row>
+    <row r="1586">
+      <c r="A1586" s="2" t="n">
+        <v>45701.63541666666</v>
+      </c>
+      <c r="B1586" t="n">
+        <v>372.6000061035156</v>
+      </c>
+      <c r="C1586" t="n">
+        <v>372.6000061035156</v>
+      </c>
+      <c r="D1586" t="n">
+        <v>372.6000061035156</v>
+      </c>
+      <c r="E1586" t="n">
+        <v>372.6000061035156</v>
+      </c>
+      <c r="F1586" t="n">
+        <v>2275</v>
+      </c>
+      <c r="G1586" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1586" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1586" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1586" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1586" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1586" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1586" t="inlineStr"/>
+      <c r="O1586" t="inlineStr"/>
+      <c r="P1586" t="inlineStr"/>
+      <c r="Q1586" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
